--- a/testeErro.xlsx
+++ b/testeErro.xlsx
@@ -497,7 +497,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>33820400</t>
+          <t>30000300</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
